--- a/Domaci-CUDA/Izvestaj/task_1.xlsx
+++ b/Domaci-CUDA/Izvestaj/task_1.xlsx
@@ -1,62 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racicaleksa/Projects/Semestar-7/MUPS/Domaci-CUDA/task_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/racicaleksa/Projects/Semestar-7/MUPS/Domaci-CUDA/Izvestaj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{84706C41-F68D-2441-99F1-33BF1699DFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88274733-1BBB-0246-9E1A-22244D5F17F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900"/>
+    <workbookView xWindow="12520" yWindow="1440" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="task_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">task_1!$E$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">task_1!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">task_1!$F$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">task_1!$F$2:$F$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">task_1!$E$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">task_1!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">task_1!$F$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">task_1!$F$2:$F$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">task_1!$E$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">task_1!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">task_1!$F$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">task_1!$F$2:$F$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">task_1!$F$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">task_1!$E$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">task_1!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">task_1!$F$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">task_1!$F$2:$F$4</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">task_1!$E$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">task_1!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">task_1!$F$2:$F$4</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">task_1!$F$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">task_1!$F$2:$F$4</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">task_1!$E$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">task_1!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">task_1!$F$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">task_1!$F$2:$F$4</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">task_1!$E$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">task_1!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">task_1!$F$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">task_1!$F$2:$F$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">task_1!$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">task_1!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">task_1!$F$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">task_1!$F$2:$F$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">task_1!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">task_1!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v2.20" hidden="1">task_1!$E$1</definedName>
-    <definedName name="_xlchart.v2.21" hidden="1">task_1!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v2.22" hidden="1">task_1!$F$1</definedName>
-    <definedName name="_xlchart.v2.23" hidden="1">task_1!$F$2:$F$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -98,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1851,7 +1809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
